--- a/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Table36.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/Table36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb74/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB91EFB0-E083-B04C-BE06-19E6D49A6559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F4CC0-E661-7149-A7D3-A28CE4DDE3B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Region of residence</t>
   </si>
@@ -551,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A47" sqref="A42:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32"/>
     <col min="2" max="2" width="31"/>
@@ -580,6 +580,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -588,8 +591,10 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -598,8 +603,10 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -623,6 +630,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -632,7 +642,9 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -641,8 +653,10 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -666,6 +680,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -675,7 +692,9 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -684,8 +703,10 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -694,8 +715,10 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -704,8 +727,10 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -729,6 +754,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -737,8 +765,10 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
@@ -747,8 +777,10 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -757,8 +789,10 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -782,6 +816,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -790,8 +827,10 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -801,7 +840,9 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
@@ -825,6 +866,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,8 +877,10 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
@@ -844,7 +890,9 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
@@ -853,8 +901,10 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
@@ -864,7 +914,9 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -873,8 +925,10 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
@@ -883,8 +937,10 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
@@ -893,8 +949,10 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
@@ -918,6 +976,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +987,10 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
@@ -937,7 +1000,9 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
@@ -946,8 +1011,10 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
@@ -956,8 +1023,10 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
@@ -966,8 +1035,10 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>31</v>
       </c>
@@ -977,7 +1048,9 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>32</v>
       </c>
@@ -1000,8 +1073,10 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1010,8 +1085,10 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1097,10 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1109,10 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1122,9 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1171,7 @@
         <v>12894</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1180,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
